--- a/画像付き武器一覧表.xlsx
+++ b/画像付き武器一覧表.xlsx
@@ -2680,21 +2680,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2721,6 +2706,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4405,6 +4405,402 @@
         <a:xfrm rot="16200000">
           <a:off x="3872554" y="22794275"/>
           <a:ext cx="560387" cy="580712"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>928688</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>324565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1468437</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="図 39"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3901282" y="23216315"/>
+          <a:ext cx="539749" cy="489822"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>615156</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>186532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1481930</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>291306</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="図 40"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3587750" y="25364282"/>
+          <a:ext cx="866774" cy="866774"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1004146</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>380999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1189832</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>377026</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="図 41"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3976740" y="26320749"/>
+          <a:ext cx="185686" cy="377027"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>981905</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>377030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1204912</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>369091</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="図 42"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3954499" y="26697780"/>
+          <a:ext cx="223007" cy="373061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>936623</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>325437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1393030</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>19844</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="図 43"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3909217" y="24741187"/>
+          <a:ext cx="456407" cy="456407"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2337595</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>70186</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7939</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>321467</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="図 44"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2948783" y="23723936"/>
+          <a:ext cx="2393156" cy="251281"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>992188</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>329406</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1448595</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="図 45"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3964782" y="17776031"/>
+          <a:ext cx="456407" cy="456407"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>992188</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1448595</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>27782</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="図 46"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3964782" y="18161000"/>
+          <a:ext cx="456407" cy="456407"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>966931</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>313531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1527967</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>45243</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="図 47"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3939525" y="8997156"/>
+          <a:ext cx="561036" cy="493712"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4681,8 +5077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4696,44 +5092,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="34"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="40"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="35"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -4751,11 +5147,11 @@
       <c r="E4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
       <c r="I4" s="9" t="s">
         <v>126</v>
       </c>
@@ -4777,11 +5173,11 @@
       <c r="E5" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
       <c r="I5" s="11" t="s">
         <v>54</v>
       </c>
@@ -4803,11 +5199,11 @@
       <c r="E6" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
       <c r="I6" s="12" t="s">
         <v>58</v>
       </c>
@@ -4829,11 +5225,11 @@
       <c r="E7" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
       <c r="I7" s="12"/>
       <c r="J7" s="24">
         <v>22</v>
@@ -4853,11 +5249,11 @@
       <c r="E8" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
       <c r="I8" s="12" t="s">
         <v>64</v>
       </c>
@@ -4879,11 +5275,11 @@
       <c r="E9" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
       <c r="I9" s="12"/>
       <c r="J9" s="24">
         <v>13</v>
@@ -4903,11 +5299,11 @@
       <c r="E10" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
       <c r="I10" s="12" t="s">
         <v>70</v>
       </c>
@@ -4929,11 +5325,11 @@
       <c r="E11" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
       <c r="I11" s="12" t="s">
         <v>74</v>
       </c>
@@ -4955,11 +5351,11 @@
       <c r="E12" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
       <c r="I12" s="12"/>
       <c r="J12" s="24">
         <v>27</v>
@@ -4979,11 +5375,11 @@
       <c r="E13" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
       <c r="I13" s="12"/>
       <c r="J13" s="24">
         <v>13</v>
@@ -5003,11 +5399,11 @@
       <c r="E14" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
       <c r="I14" s="12"/>
       <c r="J14" s="24">
         <v>12</v>
@@ -5027,11 +5423,11 @@
       <c r="E15" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
       <c r="I15" s="12" t="s">
         <v>83</v>
       </c>
@@ -5053,11 +5449,11 @@
       <c r="E16" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
       <c r="I16" s="12" t="s">
         <v>86</v>
       </c>
@@ -5079,11 +5475,11 @@
       <c r="E17" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
       <c r="I17" s="12" t="s">
         <v>90</v>
       </c>
@@ -5105,11 +5501,11 @@
       <c r="E18" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
       <c r="I18" s="12" t="s">
         <v>121</v>
       </c>
@@ -5129,11 +5525,11 @@
       <c r="E19" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
       <c r="I19" s="12" t="s">
         <v>123</v>
       </c>
@@ -5155,11 +5551,11 @@
       <c r="E20" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="27" t="s">
+      <c r="F20" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
       <c r="I20" s="12" t="s">
         <v>127</v>
       </c>
@@ -5181,11 +5577,11 @@
       <c r="E21" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F21" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
       <c r="I21" s="12" t="s">
         <v>130</v>
       </c>
@@ -5207,11 +5603,11 @@
       <c r="E22" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="27" t="s">
+      <c r="F22" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
       <c r="I22" s="12" t="s">
         <v>133</v>
       </c>
@@ -5233,11 +5629,11 @@
       <c r="E23" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="F23" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
       <c r="I23" s="12" t="s">
         <v>136</v>
       </c>
@@ -5259,11 +5655,11 @@
       <c r="E24" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="F24" s="27" t="s">
+      <c r="F24" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
       <c r="I24" s="12" t="s">
         <v>140</v>
       </c>
@@ -5285,11 +5681,11 @@
       <c r="E25" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="F25" s="27" t="s">
+      <c r="F25" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
       <c r="I25" s="12" t="s">
         <v>143</v>
       </c>
@@ -5311,11 +5707,11 @@
       <c r="E26" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="27" t="s">
+      <c r="F26" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
       <c r="I26" s="12" t="s">
         <v>146</v>
       </c>
@@ -5337,11 +5733,11 @@
       <c r="E27" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="F27" s="27" t="s">
+      <c r="F27" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
       <c r="I27" s="12" t="s">
         <v>148</v>
       </c>
@@ -5363,11 +5759,11 @@
       <c r="E28" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F28" s="27" t="s">
+      <c r="F28" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
       <c r="I28" s="12" t="s">
         <v>151</v>
       </c>
@@ -5389,11 +5785,11 @@
       <c r="E29" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="27" t="s">
+      <c r="F29" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
       <c r="I29" s="12" t="s">
         <v>154</v>
       </c>
@@ -5415,11 +5811,11 @@
       <c r="E30" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="27" t="s">
+      <c r="F30" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
       <c r="I30" s="12" t="s">
         <v>157</v>
       </c>
@@ -5441,11 +5837,11 @@
       <c r="E31" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="27" t="s">
+      <c r="F31" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
       <c r="I31" s="12" t="s">
         <v>160</v>
       </c>
@@ -5467,11 +5863,11 @@
       <c r="E32" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F32" s="27" t="s">
+      <c r="F32" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
       <c r="I32" s="12" t="s">
         <v>163</v>
       </c>
@@ -5493,11 +5889,11 @@
       <c r="E33" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F33" s="27" t="s">
+      <c r="F33" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
       <c r="I33" s="12" t="s">
         <v>165</v>
       </c>
@@ -5519,11 +5915,11 @@
       <c r="E34" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F34" s="27" t="s">
+      <c r="F34" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
       <c r="I34" s="12" t="s">
         <v>167</v>
       </c>
@@ -5545,11 +5941,11 @@
       <c r="E35" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F35" s="27" t="s">
+      <c r="F35" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
       <c r="I35" s="12" t="s">
         <v>170</v>
       </c>
@@ -5571,11 +5967,11 @@
       <c r="E36" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="F36" s="27" t="s">
+      <c r="F36" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
       <c r="I36" s="12" t="s">
         <v>173</v>
       </c>
@@ -5597,11 +5993,11 @@
       <c r="E37" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F37" s="27" t="s">
+      <c r="F37" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
       <c r="I37" s="12" t="s">
         <v>175</v>
       </c>
@@ -5623,11 +6019,11 @@
       <c r="E38" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F38" s="27" t="s">
+      <c r="F38" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
       <c r="I38" s="12" t="s">
         <v>178</v>
       </c>
@@ -5649,11 +6045,11 @@
       <c r="E39" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F39" s="27" t="s">
+      <c r="F39" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
       <c r="I39" s="12"/>
       <c r="J39" s="24">
         <v>28</v>
@@ -5673,11 +6069,11 @@
       <c r="E40" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F40" s="27" t="s">
+      <c r="F40" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
       <c r="I40" s="12"/>
       <c r="J40" s="24">
         <v>38</v>
@@ -5697,11 +6093,11 @@
       <c r="E41" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="F41" s="27" t="s">
+      <c r="F41" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
       <c r="I41" s="12"/>
       <c r="J41" s="24">
         <v>13</v>
@@ -5721,11 +6117,11 @@
       <c r="E42" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="F42" s="27" t="s">
+      <c r="F42" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
       <c r="I42" s="12" t="s">
         <v>187</v>
       </c>
@@ -5747,11 +6143,11 @@
       <c r="E43" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F43" s="27" t="s">
+      <c r="F43" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
       <c r="I43" s="12" t="s">
         <v>190</v>
       </c>
@@ -5773,11 +6169,11 @@
       <c r="E44" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F44" s="27" t="s">
+      <c r="F44" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
       <c r="I44" s="12" t="s">
         <v>192</v>
       </c>
@@ -5799,11 +6195,11 @@
       <c r="E45" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F45" s="27" t="s">
+      <c r="F45" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
       <c r="I45" s="12"/>
       <c r="J45" s="24">
         <v>8</v>
@@ -5823,11 +6219,11 @@
       <c r="E46" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="F46" s="27" t="s">
+      <c r="F46" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
       <c r="I46" s="12" t="s">
         <v>196</v>
       </c>
@@ -5849,11 +6245,11 @@
       <c r="E47" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="F47" s="27" t="s">
+      <c r="F47" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
       <c r="I47" s="12"/>
       <c r="J47" s="24">
         <v>12</v>
@@ -5873,11 +6269,11 @@
       <c r="E48" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="F48" s="27" t="s">
+      <c r="F48" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
       <c r="I48" s="12" t="s">
         <v>202</v>
       </c>
@@ -5899,11 +6295,11 @@
       <c r="E49" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F49" s="27" t="s">
+      <c r="F49" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
       <c r="I49" s="12" t="s">
         <v>205</v>
       </c>
@@ -5925,11 +6321,11 @@
       <c r="E50" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F50" s="27" t="s">
+      <c r="F50" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
       <c r="I50" s="12" t="s">
         <v>207</v>
       </c>
@@ -5951,11 +6347,11 @@
       <c r="E51" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F51" s="27" t="s">
+      <c r="F51" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
       <c r="I51" s="12" t="s">
         <v>208</v>
       </c>
@@ -5977,11 +6373,11 @@
       <c r="E52" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F52" s="27" t="s">
+      <c r="F52" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
       <c r="I52" s="12"/>
       <c r="J52" s="24">
         <v>1</v>
@@ -6001,11 +6397,11 @@
       <c r="E53" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F53" s="27" t="s">
+      <c r="F53" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
       <c r="I53" s="12" t="s">
         <v>213</v>
       </c>
@@ -6027,11 +6423,11 @@
       <c r="E54" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="F54" s="27" t="s">
+      <c r="F54" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
       <c r="I54" s="12" t="s">
         <v>216</v>
       </c>
@@ -6053,11 +6449,11 @@
       <c r="E55" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="F55" s="27" t="s">
+      <c r="F55" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
       <c r="I55" s="12" t="s">
         <v>220</v>
       </c>
@@ -6075,9 +6471,9 @@
       <c r="C56" s="13"/>
       <c r="D56" s="20"/>
       <c r="E56" s="17"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
       <c r="I56" s="13"/>
       <c r="J56" s="24">
         <v>0</v>
@@ -6097,11 +6493,11 @@
       <c r="E57" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="F57" s="27" t="s">
+      <c r="F57" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
       <c r="I57" s="12"/>
       <c r="J57" s="24">
         <v>50</v>
@@ -6121,11 +6517,11 @@
       <c r="E58" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F58" s="27" t="s">
+      <c r="F58" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
       <c r="I58" s="12"/>
       <c r="J58" s="24">
         <v>3</v>
@@ -6145,11 +6541,11 @@
       <c r="E59" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="F59" s="27" t="s">
+      <c r="F59" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="G59" s="27"/>
-      <c r="H59" s="27"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
       <c r="I59" s="12"/>
       <c r="J59" s="24">
         <v>0</v>
@@ -6169,11 +6565,11 @@
       <c r="E60" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="F60" s="27" t="s">
+      <c r="F60" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
       <c r="I60" s="12"/>
       <c r="J60" s="24">
         <v>0</v>
@@ -6193,11 +6589,11 @@
       <c r="E61" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F61" s="27" t="s">
+      <c r="F61" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="G61" s="27"/>
-      <c r="H61" s="27"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
       <c r="I61" s="12" t="s">
         <v>231</v>
       </c>
@@ -6215,9 +6611,9 @@
       <c r="C62" s="13"/>
       <c r="D62" s="20"/>
       <c r="E62" s="17"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="37"/>
       <c r="I62" s="13"/>
       <c r="J62" s="24">
         <v>0</v>
@@ -6233,9 +6629,9 @@
       <c r="C63" s="13"/>
       <c r="D63" s="20"/>
       <c r="E63" s="17"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="31"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="37"/>
       <c r="I63" s="13"/>
       <c r="J63" s="24">
         <v>1</v>
@@ -6255,11 +6651,11 @@
       <c r="E64" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F64" s="27" t="s">
+      <c r="F64" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="G64" s="27"/>
-      <c r="H64" s="27"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="36"/>
       <c r="I64" s="12" t="s">
         <v>233</v>
       </c>
@@ -6281,11 +6677,11 @@
       <c r="E65" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F65" s="27" t="s">
+      <c r="F65" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="G65" s="27"/>
-      <c r="H65" s="27"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="36"/>
       <c r="I65" s="12" t="s">
         <v>234</v>
       </c>
@@ -6293,7 +6689,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>106</v>
       </c>
@@ -6307,11 +6703,11 @@
       <c r="E66" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="F66" s="27" t="s">
+      <c r="F66" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="G66" s="27"/>
-      <c r="H66" s="27"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="36"/>
       <c r="I66" s="12" t="s">
         <v>239</v>
       </c>
@@ -6319,7 +6715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>107</v>
       </c>
@@ -6333,11 +6729,11 @@
       <c r="E67" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F67" s="27" t="s">
+      <c r="F67" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="36"/>
       <c r="I67" s="12" t="s">
         <v>242</v>
       </c>
@@ -6345,7 +6741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>108</v>
       </c>
@@ -6359,17 +6755,17 @@
       <c r="E68" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F68" s="27" t="s">
+      <c r="F68" s="36" t="s">
         <v>244</v>
       </c>
-      <c r="G68" s="27"/>
-      <c r="H68" s="27"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
       <c r="I68" s="12"/>
       <c r="J68" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>109</v>
       </c>
@@ -6383,17 +6779,17 @@
       <c r="E69" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F69" s="27" t="s">
+      <c r="F69" s="36" t="s">
         <v>246</v>
       </c>
-      <c r="G69" s="27"/>
-      <c r="H69" s="27"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="36"/>
       <c r="I69" s="12"/>
       <c r="J69" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>110</v>
       </c>
@@ -6407,11 +6803,11 @@
       <c r="E70" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F70" s="27" t="s">
+      <c r="F70" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="G70" s="27"/>
-      <c r="H70" s="27"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="36"/>
       <c r="I70" s="12" t="s">
         <v>248</v>
       </c>
@@ -6419,7 +6815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>111</v>
       </c>
@@ -6433,11 +6829,11 @@
       <c r="E71" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="F71" s="27" t="s">
+      <c r="F71" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="G71" s="27"/>
-      <c r="H71" s="27"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="36"/>
       <c r="I71" s="12" t="s">
         <v>250</v>
       </c>
@@ -6445,7 +6841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>112</v>
       </c>
@@ -6459,17 +6855,17 @@
       <c r="E72" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="F72" s="27" t="s">
+      <c r="F72" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="G72" s="27"/>
-      <c r="H72" s="27"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="36"/>
       <c r="I72" s="12"/>
       <c r="J72" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>113</v>
       </c>
@@ -6483,11 +6879,11 @@
       <c r="E73" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="F73" s="27" t="s">
+      <c r="F73" s="36" t="s">
         <v>255</v>
       </c>
-      <c r="G73" s="27"/>
-      <c r="H73" s="27"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="36"/>
       <c r="I73" s="12" t="s">
         <v>256</v>
       </c>
@@ -6495,7 +6891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>114</v>
       </c>
@@ -6509,11 +6905,11 @@
       <c r="E74" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F74" s="27" t="s">
+      <c r="F74" s="36" t="s">
         <v>258</v>
       </c>
-      <c r="G74" s="27"/>
-      <c r="H74" s="27"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="36"/>
       <c r="I74" s="12" t="s">
         <v>259</v>
       </c>
@@ -6521,7 +6917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>115</v>
       </c>
@@ -6535,11 +6931,11 @@
       <c r="E75" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="F75" s="30" t="s">
+      <c r="F75" s="40" t="s">
         <v>261</v>
       </c>
-      <c r="G75" s="30"/>
-      <c r="H75" s="30"/>
+      <c r="G75" s="40"/>
+      <c r="H75" s="40"/>
       <c r="I75" s="14" t="s">
         <v>262</v>
       </c>
@@ -6549,6 +6945,63 @@
     </row>
   </sheetData>
   <mergeCells count="73">
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F75:H75"/>
+    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="F68:H68"/>
+    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="F61:H61"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F21:H21"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="F7:H7"/>
@@ -6565,63 +7018,6 @@
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="F61:H61"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F75:H75"/>
-    <mergeCell ref="F74:H74"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="F71:H71"/>
-    <mergeCell ref="F70:H70"/>
-    <mergeCell ref="F69:H69"/>
-    <mergeCell ref="F68:H68"/>
-    <mergeCell ref="F67:H67"/>
-    <mergeCell ref="F66:H66"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="F63:H63"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
